--- a/INTLINE/data/142/STANOR/old/05803 Population 1 January and population changes during the calendar year.xlsx
+++ b/INTLINE/data/142/STANOR/old/05803 Population 1 January and population changes during the calendar year.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="314">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="315">
   <x:si>
     <x:t>05803: Population 1 January and population changes during the calendar year, by year and contents</x:t>
   </x:si>
@@ -883,19 +883,22 @@
     <x:t>2021</x:t>
   </x:si>
   <x:si>
+    <x:t>2022</x:t>
+  </x:si>
+  <x:si>
     <x:t>&lt;br&gt;&lt;a href='http://www.ssb.no/befolkning/artikler-og-publikasjoner/dokumentasjon-av-kommunetabeller-over-folkemengdens-bevegelse-1906-1968' target='footnote'&gt;Documentation (in Norwegian)&lt;/a&gt;.</x:t>
   </x:si>
   <x:si>
     <x:t>Before 1816 estimated mean population.</x:t>
   </x:si>
   <x:si>
-    <x:t>Latest update:</x:t>
+    <x:t>Updated:</x:t>
   </x:si>
   <x:si>
     <x:t>Population 1 January:</x:t>
   </x:si>
   <x:si>
-    <x:t>20210311 08:00</x:t>
+    <x:t>20220309 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -1348,14 +1351,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B336"/>
+  <x:dimension ref="A1:B337"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="20.130625" style="0" customWidth="1"/>
+    <x:col min="1" max="2" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
@@ -3664,9 +3666,12 @@
         <x:v>5391369</x:v>
       </x:c>
     </x:row>
-    <x:row r="292" spans="1:2">
-      <x:c r="A292" s="4" t="s">
+    <x:row r="291" spans="1:2">
+      <x:c r="A291" s="2" t="s">
         <x:v>289</x:v>
+      </x:c>
+      <x:c r="B291" s="3" t="n">
+        <x:v>5425270</x:v>
       </x:c>
     </x:row>
     <x:row r="293" spans="1:2">
@@ -3674,8 +3679,8 @@
         <x:v>290</x:v>
       </x:c>
     </x:row>
-    <x:row r="295" spans="1:2">
-      <x:c r="A295" s="0" t="s">
+    <x:row r="294" spans="1:2">
+      <x:c r="A294" s="4" t="s">
         <x:v>291</x:v>
       </x:c>
     </x:row>
@@ -3689,8 +3694,8 @@
         <x:v>293</x:v>
       </x:c>
     </x:row>
-    <x:row r="299" spans="1:2">
-      <x:c r="A299" s="0" t="s">
+    <x:row r="298" spans="1:2">
+      <x:c r="A298" s="0" t="s">
         <x:v>294</x:v>
       </x:c>
     </x:row>
@@ -3699,19 +3704,19 @@
         <x:v>295</x:v>
       </x:c>
     </x:row>
-    <x:row r="302" spans="1:2">
-      <x:c r="A302" s="0" t="s">
+    <x:row r="301" spans="1:2">
+      <x:c r="A301" s="0" t="s">
         <x:v>296</x:v>
       </x:c>
     </x:row>
     <x:row r="303" spans="1:2">
       <x:c r="A303" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>297</x:v>
       </x:c>
     </x:row>
     <x:row r="304" spans="1:2">
       <x:c r="A304" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>293</x:v>
       </x:c>
     </x:row>
     <x:row r="305" spans="1:2">
@@ -3724,8 +3729,8 @@
         <x:v>299</x:v>
       </x:c>
     </x:row>
-    <x:row r="308" spans="1:2">
-      <x:c r="A308" s="0" t="s">
+    <x:row r="307" spans="1:2">
+      <x:c r="A307" s="0" t="s">
         <x:v>300</x:v>
       </x:c>
     </x:row>
@@ -3739,24 +3744,24 @@
         <x:v>302</x:v>
       </x:c>
     </x:row>
-    <x:row r="314" spans="1:2">
-      <x:c r="A314" s="0" t="s">
+    <x:row r="311" spans="1:2">
+      <x:c r="A311" s="0" t="s">
         <x:v>303</x:v>
       </x:c>
     </x:row>
-    <x:row r="316" spans="1:2">
-      <x:c r="A316" s="0" t="s">
+    <x:row r="315" spans="1:2">
+      <x:c r="A315" s="0" t="s">
         <x:v>304</x:v>
       </x:c>
     </x:row>
     <x:row r="317" spans="1:2">
       <x:c r="A317" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>305</x:v>
       </x:c>
     </x:row>
     <x:row r="318" spans="1:2">
       <x:c r="A318" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>293</x:v>
       </x:c>
     </x:row>
     <x:row r="319" spans="1:2">
@@ -3766,31 +3771,31 @@
     </x:row>
     <x:row r="320" spans="1:2">
       <x:c r="A320" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>307</x:v>
       </x:c>
     </x:row>
     <x:row r="321" spans="1:2">
       <x:c r="A321" s="0" t="s">
-        <x:v>307</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="323" spans="1:2">
-      <x:c r="A323" s="0" t="s">
+        <x:v>293</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="322" spans="1:2">
+      <x:c r="A322" s="0" t="s">
         <x:v>308</x:v>
       </x:c>
     </x:row>
     <x:row r="324" spans="1:2">
       <x:c r="A324" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>309</x:v>
       </x:c>
     </x:row>
     <x:row r="325" spans="1:2">
       <x:c r="A325" s="0" t="s">
-        <x:v>309</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="332" spans="1:2">
-      <x:c r="A332" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="326" spans="1:2">
+      <x:c r="A326" s="0" t="s">
         <x:v>310</x:v>
       </x:c>
     </x:row>
@@ -3799,8 +3804,8 @@
         <x:v>311</x:v>
       </x:c>
     </x:row>
-    <x:row r="335" spans="1:2">
-      <x:c r="A335" s="0" t="s">
+    <x:row r="334" spans="1:2">
+      <x:c r="A334" s="0" t="s">
         <x:v>312</x:v>
       </x:c>
     </x:row>
@@ -3809,7 +3814,16 @@
         <x:v>313</x:v>
       </x:c>
     </x:row>
+    <x:row r="337" spans="1:2">
+      <x:c r="A337" s="0" t="s">
+        <x:v>314</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
+  <x:mergeCells count="2">
+    <x:mergeCell ref="A293:B293"/>
+    <x:mergeCell ref="A294:B294"/>
+  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
